--- a/Assessment 2/2-3_bubblesort.xlsx
+++ b/Assessment 2/2-3_bubblesort.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DDC_materials\12_DS\assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\software_development_year_2\01_data_structures\Assessment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="39">
   <si>
     <t>index-&gt;</t>
   </si>
@@ -135,12 +135,18 @@
   </si>
   <si>
     <t>PASS 4</t>
+  </si>
+  <si>
+    <t>Swap</t>
+  </si>
+  <si>
+    <t>No swap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -199,6 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,12 +489,13 @@
   <dimension ref="A2:S80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="18" width="4.7109375" customWidth="1"/>
+    <col min="2" max="17" width="4.7109375" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
     <col min="19" max="19" width="79.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -661,6 +669,29 @@
       <c r="A7">
         <v>0</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
       <c r="S7" s="3" t="s">
         <v>3</v>
       </c>
@@ -669,6 +700,29 @@
       <c r="A8">
         <v>1</v>
       </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" t="s">
+        <v>37</v>
+      </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
@@ -677,6 +731,29 @@
       <c r="A9">
         <v>2</v>
       </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" t="s">
+        <v>38</v>
+      </c>
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
@@ -685,6 +762,29 @@
       <c r="A10">
         <v>3</v>
       </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" t="s">
+        <v>37</v>
+      </c>
       <c r="S10" s="3" t="s">
         <v>8</v>
       </c>
@@ -693,6 +793,29 @@
       <c r="A11">
         <v>4</v>
       </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" t="s">
+        <v>37</v>
+      </c>
       <c r="S11" s="3" t="s">
         <v>9</v>
       </c>
@@ -701,6 +824,29 @@
       <c r="A12">
         <v>5</v>
       </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" t="s">
+        <v>37</v>
+      </c>
       <c r="S12" s="3" t="s">
         <v>10</v>
       </c>
@@ -709,6 +855,29 @@
       <c r="A13">
         <v>6</v>
       </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" t="s">
+        <v>37</v>
+      </c>
       <c r="S13" s="3" t="s">
         <v>11</v>
       </c>
@@ -717,6 +886,29 @@
       <c r="A14">
         <v>7</v>
       </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" t="s">
+        <v>37</v>
+      </c>
       <c r="S14" s="3" t="s">
         <v>12</v>
       </c>
@@ -725,7 +917,29 @@
       <c r="A15">
         <v>8</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" t="s">
+        <v>37</v>
+      </c>
       <c r="S15" s="3" t="s">
         <v>13</v>
       </c>
@@ -734,11 +948,29 @@
       <c r="A16">
         <v>9</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" t="s">
+        <v>37</v>
+      </c>
       <c r="S16" s="3" t="s">
         <v>14</v>
       </c>
@@ -747,8 +979,29 @@
       <c r="A17">
         <v>10</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" t="s">
+        <v>37</v>
+      </c>
       <c r="S17" s="3" t="s">
         <v>6</v>
       </c>
@@ -757,8 +1010,29 @@
       <c r="A18">
         <v>11</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" t="s">
+        <v>37</v>
+      </c>
       <c r="S18" s="3" t="s">
         <v>7</v>
       </c>
@@ -767,24 +1041,87 @@
       <c r="A19">
         <v>12</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" t="s">
+        <v>37</v>
+      </c>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" t="s">
+        <v>37</v>
+      </c>
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
@@ -794,6 +1131,9 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
+      <c r="G22">
+        <v>15</v>
+      </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -804,6 +1144,9 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
+      <c r="G23">
+        <v>14</v>
+      </c>
       <c r="H23" s="2"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -865,73 +1208,199 @@
       <c r="A27">
         <v>0</v>
       </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="R32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="R36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N38" t="s">
+        <v>27</v>
+      </c>
+      <c r="R38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39" t="s">
+        <v>29</v>
+      </c>
+      <c r="R39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O40" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" t="s">
+        <v>30</v>
+      </c>
+      <c r="R40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>33</v>
       </c>
@@ -939,8 +1408,11 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>32</v>
       </c>
@@ -948,13 +1420,16 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0</v>
       </c>
@@ -1004,77 +1479,245 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>28</v>
+      </c>
+      <c r="N46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>18</v>
+      </c>
+      <c r="R46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="R47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="R48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" t="s">
+        <v>22</v>
+      </c>
+      <c r="R51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s">
+        <v>23</v>
+      </c>
+      <c r="R52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" t="s">
+        <v>24</v>
+      </c>
+      <c r="R53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" t="s">
+        <v>25</v>
+      </c>
+      <c r="R54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" t="s">
+        <v>26</v>
+      </c>
+      <c r="R55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L56" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" t="s">
+        <v>28</v>
+      </c>
+      <c r="R56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>28</v>
+      </c>
+      <c r="N57" t="s">
+        <v>27</v>
+      </c>
+      <c r="R57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N58" t="s">
+        <v>27</v>
+      </c>
+      <c r="O58" t="s">
+        <v>29</v>
+      </c>
+      <c r="R58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" t="s">
+        <v>30</v>
+      </c>
+      <c r="R59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>33</v>
       </c>
@@ -1082,8 +1725,11 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>32</v>
       </c>
@@ -1091,13 +1737,16 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>0</v>
       </c>
